--- a/leancloudGetSchema/data1.xlsx
+++ b/leancloudGetSchema/data1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241" count="241">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229" count="229">
   <x:si>
     <x:t>ndYinXiangComment</x:t>
   </x:si>
@@ -121,622 +121,586 @@
     <x:t>ndShangPinComment</x:t>
   </x:si>
   <x:si>
-    <x:t>content | "评论的内容"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>updatedAt | ""| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>momentTitle | "moment的标题部分"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>salt | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>valid | ""| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productionCountry | "生产国家，例如：日本"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yuDingShiJian | "预定时间"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantity | ""| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>otherGuiZe | "其他规则"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>unique | ""| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user | "发布印象的用户"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dingDanJinE | "订单金额"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>duiHuanJiLu | "兑换记录"| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>closeDealDate | "成交时间"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name | "商品分类的类名字例如：母婴产品"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user | "评论的用户"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zhengJianImage | "证件图片"| "File"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>talentTags | "例如：［美食，购物，韩文，户外］"| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mime_type | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shangPin | "评论对应的商品"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user | "发布评论的用户"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>createdAt | ""| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>objectId | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>role | "用户的角色，达人，商户，超级管理员"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vendor | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>transportFee | "运费"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tuiGaiGuiZe | "退改规则"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guestUser | "发起约的游客"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content | "印象内容的数组"| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fansNumber | "粉丝数量"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jiFen | "积分"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content | "moment评论的内容"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>muQianShenFen | "目前身份"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>occupation | "职业"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guestUser | "发布moment的游客用户"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>timeZone | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>orderGoodsList | "行程的单个商品"| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>headerImage | "商铺的头像"| "File"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shangPu | "订单相关的商铺"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>verifyMethod | "认证方式"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name | "用户名字"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>key | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>contactMethod | "联系方式"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content | "动态的内容"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>carType | "车型"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sessionToken | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>follower | ""| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>numberOfStocks | "库存，例如：288"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guestUser | "下单的游客用户"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>followee | ""| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>specialty | "服务特色，例如；旅游跟拍，特色体验"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>m | ""| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>startDate | "约的开始时间"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>roles | ""| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>endTime | "代金券结束时间"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name | "商铺的名字"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>guestUser | "下订单的用户"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>occupation | "商户职业"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fieldOfStudy | "所在专业"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>addressDetail | "详细地址"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>muDiDiDetail | "目的地详细地址"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user | ""| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>channels | ""| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shangPinImage | "商品的图片"| "File"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name | "服务的名字"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tr | ""| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>users | ""| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>goods | "单个订单的商品"| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name | "商户名字"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>verifyMethod | "达人的认证方式"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emailAddress | "用户的邮箱"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>area | "所在地区"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>starNumber | "星级数量"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>password | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name | "商品的名字"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>contactPersonName | "联系人名字"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type | "约的类型，约游，约玩"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>baoHanYouFei | "是否包含邮费"| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>city | "所在城市"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>city | "用户所在城市"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consigneeName | "收货人名字"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>momentContent | "moment的图片和文字对应array"| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>muDiDi | "目的地"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>headerImage | "用户的头像"| "File"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deviceToken | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xingChengDingZhi | "行程定制"| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lm | ""| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>title | "约的标题"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>beginDate | "代金券开始使用时间"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deliveryInfo | "快递信息"| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>baoZhengJin | "保证金"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name | "达人名字"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthday | "用户的生日"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>__type | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user | "发布moment的用户"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maxTraveller | "最多乘客人数"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>payType | "可付款方式，例如：现，券"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>orderStatus | "订单状态"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fuwuDescription | "服务介绍文件，图片文件，淘宝"| "File"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>uniqueId | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yueDescription | "约的描述"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>manJianJinE | "满减金额"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wuLiuFuWu | "物流服务"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emailAddress | "邮箱地址"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>url | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>travelDate | "日期"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>username | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deviceType | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zhiFuFangShi | "支付方式"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mu | ""| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>girlCount | "约的女生数量"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>miaoShuXiangFu | "描述相符"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zhifubaoTransactionId | "支付宝"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>talentXiangCe | "达人的相册"| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zhengjianImage | "证件图片"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>metaData | ""| "Object"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>chuFaDi | "出发地"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>installationId | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>transportFeeCondistion | "包邮活动，都不包邮，满包邮"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>daiJinQuan | "订单使用的代金券"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>feiYongShuoMing | "费用说明"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sys | ""| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>boyCount | "约的男生数量"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fuWuTaiDu | "服务态度"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consignee | "收件人，例如：啊鋒"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthday | "商户生日"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>baoZhengJin | "保证金"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>daiJinQuan | "代金券，代金券ID和状态"| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bucket | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user | "发布顺风车的用户"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>emailVerified | ""| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>badge | ""| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>currentPrice | "价格，例如：389"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>talentUser | "订单对应的达人"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>price | "服务价格，例如：5500"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>location | "约的地址"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>province | "所在省份"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>startDeliverDate | "发货时间"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>myJoinYue | "我参加的约"| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>maxXingLi | "最多行李件数"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mobilePhoneNumber | ""| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>numberOfBuyer | "付款人数，例如：1231"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>orderTotalJine | "订单金额"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>view | "服务浏览人数，例如：100"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>price | "约的价格"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fuWuPhoneNumber | "服务电话"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tuiHuo | "商品退货"| "Object"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>homeTown | "商户家乡"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yearOfTalent | "达人年份"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>personalDescription | "个人介绍"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>authData | ""| "Object"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>freeShippingCondition | "免邮条件，例如：满200免运费"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>contactPersonPhoneNumber | "联系人电话"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shangHuUser | "卖家用户"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>paymentDate | "支付日起，例如：2016-07-23"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shangPinLeiXing | "商品类型"| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>city | "达人的城市，例如：东京"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shenFenZhengPics | "身份证正面照片"| "File"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mobilePhoneVerified | ""| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>originalPrice | "原价，例如：999"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>contactPersonNote | "联系人留言，游客留言"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kaiDianDate | "开店时间"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>consigneeAddress | "收件人地址"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shenFenZhengPics | "身份证正面照片"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>birthday | "生日，例如：1988年8月"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shouCangGoods | "游客收藏的商品"| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>productionCity | "生产城市，例如：东京"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>orderActualPrice | "实际金额"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>quantityByType | "商品类型和数量"| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qqNumber | "QQ号"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>renZhengFangShi | "认证方式"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>goodsType | "类型，例如：［牛奶味，香蕉味，辣味］"| "Array"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>totalQuantity | "所有商品的数量，例如：10"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weixinAccount | "微信帐号"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type | "类型，个人或者企业"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>shouCangDianPu | "收藏的店铺"| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>orderId | "海淘商品的订单号，不是objectId哦"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>country | "所在国家"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>otherLanguage | "其他语言"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gender | "用户的性别"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zuiGaoXueLi | "最高学历"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qqNumber | "用户的QQ号"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isHaiTaoOpen | ""| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weixinAccount | "用户的微信帐号"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>starNumber | "达人的星际，例如：5"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user | "对应的user"| "Pointer"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>viewNumber | "达人浏览量，例如：2636"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>verifyDate | "认证时间，例如：2016-01-25"| "Date"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>talentDescription | "达人的自我介绍"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>isVerified | "是否认证,例如：以验证"| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>talentTagsRelation | "达人标签的relation类型"| "Relation"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>talentVideoIntro | "达人的个人介绍视频"| "File"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>graduatedSchool | "毕业学校"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>degree | "最高学历"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>homeTown | "家乡，例如：沈阳"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hasCar | "是否有车，例如：否"| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>canDrive | "是否会开车"| "Boolean"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gender | "性别，例如：男"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fengMianZhaoPic | "达人的封面照片"| "File"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weixinAccount | "微信号码"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>phoneNumber | "手机好，例如：13709998827"| "Number"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>country | "达人的国家，例如：日本"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>workStatus | "工作状态"| "String"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>yuYanShuLianChengDu | "语言熟练程度"| "String"</x:t>
+    <x:t>参数: content |注解: "评论的内容" |类型: "String" |指向类: undefined</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: updatedAt |注解: "" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: momentTitle |注解: "moment的标题部分" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: salt |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: valid |注解: "" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: productionCountry |注解: "生产国家，例如：日本" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: yuDingShiJian |注解: "预定时间" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: quantity |注解: "" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: otherGuiZe |注解: "其他规则" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: unique |注解: "" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: user |注解: "发布印象的用户" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: dingDanJinE |注解: "订单金额" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: duiHuanJiLu |注解: "兑换记录" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: closeDealDate |注解: "成交时间" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: name |注解: "商品分类的类名字例如：母婴产品" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: user |注解: "评论的用户" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: zhengJianImage |注解: "证件图片" |类型: "File" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: talentTags |注解: "例如：［美食，购物，韩文，户外］" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: mime_type |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: shangPin |注解: "评论对应的商品" |类型: "Pointer" |指向类: "ndShangPin"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: user |注解: "发布评论的用户" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: createdAt |注解: "" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: objectId |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: role |注解: "用户的角色，达人，商户，超级管理员" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: vendor |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: transportFee |注解: "运费" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: tuiGaiGuiZe |注解: "退改规则" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: content |注解: "印象内容的数组" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: fansNumber |注解: "粉丝数量" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: jiFen |注解: "积分" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: content |注解: "moment评论的内容" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: muQianShenFen |注解: "目前身份" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: content |注解: "评论的内容" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: content |注解: "动态的内容" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: email |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: timeZone |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: orderGoodsList |注解: "行程的单个商品" |类型: "Relation" |指向类: "ndXingChengOrderGoods"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: startDate |注解: "约的开始时间" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: headerImage |注解: "商铺的头像" |类型: "File" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: shangPu |注解: "订单相关的商铺" |类型: "Pointer" |指向类: "ndDianPu"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: verifyMethod |注解: "认证方式" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: key |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: contactMethod |注解: "联系方式" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: carType |注解: "车型" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: sessionToken |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: follower |注解: "" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: numberOfStocks |注解: "库存，例如：288" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: followee |注解: "" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: specialty |注解: "服务特色，例如；旅游跟拍，特色体验" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: m |注解: "" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: roles |注解: "" |类型: "Relation" |指向类: "_Role"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: endTime |注解: "代金券结束时间" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: name |注解: "商铺的名字" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: goods |注解: "单个订单的商品" |类型: "Relation" |指向类: "ndShangPin"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: fieldOfStudy |注解: "所在专业" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: zhengjianImage |注解: "证件图片" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: name |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: addressDetail |注解: "详细地址" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: muDiDiDetail |注解: "目的地详细地址" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: user |注解: "" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: channels |注解: "" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: shangPinImage |注解: "商品的图片" |类型: "File" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: contactPersonName |注解: "联系人名字" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: name |注解: "服务的名字" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: tr |注解: "" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: type |注解: "约的类型，约游，约玩" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: users |注解: "" |类型: "Relation" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: baoZhengJin |注解: "保证金" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: verifyMethod |注解: "达人的认证方式" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: daiJinQuan |注解: "代金券，代金券ID和状态" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: area |注解: "所在地区" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: momentContent |注解: "moment的图片和文字对应array" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: starNumber |注解: "星级数量" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: password |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: name |注解: "商品的名字" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: title |注解: "约的标题" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: baoHanYouFei |注解: "是否包含邮费" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: city |注解: "所在城市" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: deliveryInfo |注解: "快递信息" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: personalDescription |注解: "个人介绍" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: consigneeName |注解: "收货人名字" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: user |注解: "发布moment的用户" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: muDiDi |注解: "目的地" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: headerImage |注解: "用户的头像" |类型: "File" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: deviceToken |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: orderStatus |注解: "订单状态" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: xingChengDingZhi |注解: "行程定制" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: lm |注解: "" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: yueDescription |注解: "约的描述" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: beginDate |注解: "代金券开始使用时间" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: homeTown |注解: "商户家乡" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: talentXiangCe |注解: "达人的相册" |类型: "Relation" |指向类: "ndTalentXiangCe"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: shenFenZhengPics |注解: "身份证正面照片" |类型: "File" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: __type |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: maxTraveller |注解: "最多乘客人数" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: occupation |注解: "用户的职业" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: payType |注解: "可付款方式，例如：现，券" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: zhiFuFangShi |注解: "支付方式" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: fuwuDescription |注解: "服务介绍文件，图片文件，淘宝" |类型: "File" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: uniqueId |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: girlCount |注解: "约的女生数量" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: manJianJinE |注解: "满减金额" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: wuLiuFuWu |注解: "物流服务" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: zhifubaoTransactionId |注解: "支付宝" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: shangPinLeiXing |注解: "商品类型" |类型: "Relation" |指向类: "ndShangPinLeiXing"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: baoZhengJin |注解: "保证金" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: renZhengFangShi |注解: "认证方式" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: url |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: travelDate |注解: "日期" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: name |注解: "用户的名字" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: deviceType |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: daiJinQuan |注解: "订单使用的代金券" |类型: "Pointer" |指向类: "ndDaiJinQuan"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: mu |注解: "" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: boyCount |注解: "约的男生数量" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: miaoShuXiangFu |注解: "描述相符" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: consignee |注解: "收件人，例如：啊鋒" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: shenFenZhengPics |注解: "身份证正面照片" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: yearOfTalent |注解: "达人年份" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: user |注解: "对应的user" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: metaData |注解: "" |类型: "Object" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: chuFaDi |注解: "出发地" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: installationId |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: transportFeeCondistion |注解: "包邮活动，都不包邮，满包邮" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: orderTotalJine |注解: "订单金额" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: feiYongShuoMing |注解: "费用说明" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: sys |注解: "" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: location |注解: "约的地址" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: fuWuTaiDu |注解: "服务态度" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: startDeliverDate |注解: "发货时间" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: country |注解: "所在国家" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: bucket |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: user |注解: "发布顺风车的用户" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: city |注解: "用户所在城市" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: badge |注解: "" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: currentPrice |注解: "价格，例如：389" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: contactPersonPhoneNumber |注解: "联系人电话" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: price |注解: "服务价格，例如：5500" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: price |注解: "约的价格" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: province |注解: "所在省份" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: tuiHuo |注解: "商品退货" |类型: "Object" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: type |注解: "类型，个人或者企业" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: maxXingLi |注解: "最多行李件数" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: username |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: numberOfBuyer |注解: "付款人数，例如：1231" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: contactPersonNote |注解: "联系人留言，游客留言" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: view |注解: "服务浏览人数，例如：100" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: user |注解: "发起约的用户" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: fuWuPhoneNumber |注解: "服务电话" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: paymentDate |注解: "支付日起，例如：2016-07-23" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: otherLanguage |注解: "其他语言" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: birthday |注解: "用户的生日" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: freeShippingCondition |注解: "免邮条件，例如：满200免运费" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: buyer |注解: "下订单的用户" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: owner |注解: "店铺的拥有者用户" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: consigneeAddress |注解: "收件人地址" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: zuiGaoXueLi |注解: "最高学历" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: originalPrice |注解: "原价，例如：999" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: orderActualPrice |注解: "实际金额" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: kaiDianDate |注解: "开店时间" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: quantityByType |注解: "商品类型和数量" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: isHaiTaoOpen |注解: "" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: shenfenzhengpics |注解: "身份证正面照片" |类型: "File" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: productionCity |注解: "生产城市，例如：东京" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: seller |注解: "销售行程的达人用户" |类型: "Pointer" |指向类: "_User"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: starNumber |注解: "达人的星际，例如：5" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: qqnumber |注解: "QQ号码" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: goodsType |注解: "类型，例如：［牛奶味，香蕉味，辣味］" |类型: "Array" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: totalQuantity |注解: "所有商品的数量，例如：10" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: viewNumber |注解: "达人浏览量，例如：2636" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: emailVerified |注解: "" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: orderId |注解: "海淘商品的订单号，不是objectId哦" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: verifyDate |注解: "认证时间，例如：2016-01-25" |类型: "Date" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: myJoinYue |注解: "用户参加的约" |类型: "Relation" |指向类: "ndYue"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: talentDescription |注解: "达人的自我介绍" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: weixinaccount |注解: "微信账号" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: isVerified |注解: "是否认证,例如：以验证" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: mobilePhoneNumber |注解: "" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: talentTagsRelation |注解: "达人标签的relation类型" |类型: "Relation" |指向类: "ndTalentTag"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: shouCangGoods |注解: "用户收藏的商品" |类型: "Relation" |指向类: "ndShangPin"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: talentVideoIntro |注解: "达人的个人介绍视频" |类型: "File" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: shouCangDianPu |注解: "用户收藏的店铺" |类型: "Relation" |指向类: "ndDianPu"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: graduatedSchool |注解: "毕业学校" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: gender |注解: "用户的性别" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: degree |注解: "最高学历" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: authData |注解: "" |类型: "Object" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: homeTown |注解: "家乡，例如：沈阳" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: mobilePhoneVerified |注解: "" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: hasCar |注解: "是否有车，例如：否" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: canDrive |注解: "是否会开车" |类型: "Boolean" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: fengMianZhaoPic |注解: "达人的封面照片" |类型: "File" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: phoneNumber |注解: "手机好，例如：13709998827" |类型: "Number" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: country |注解: "达人的国家，例如：日本" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: workStatus |注解: "工作状态" |类型: "String" |指向类: ""</x:t>
+  </x:si>
+  <x:si>
+    <x:t>参数: yuYanShuLianChengDu |注解: "语言熟练程度" |类型: "String" |指向类: ""</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1369,55 +1333,55 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="S3" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="T3" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="T3" s="0" t="s">
+      <x:c r="U3" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="V3" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="W3" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="X3" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="U3" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="V3" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="W3" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="X3" s="0" t="s">
+      <x:c r="Y3" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="Y3" s="0" t="s">
+      <x:c r="Z3" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AA3" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AB3" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="Z3" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="AA3" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="AB3" s="0" t="s">
+      <x:c r="AC3" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AD3" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AE3" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AF3" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="AC3" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="AD3" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AE3" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AF3" s="0" t="s">
+      <x:c r="AG3" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AH3" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="AI3" s="0" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="AG3" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="AH3" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="AI3" s="0" t="s">
-        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:35">
@@ -1434,49 +1398,49 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I4" s="0" t="s">
+      <x:c r="J4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="L4" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="M4" s="0" t="s">
+      <x:c r="N4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="O4" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="P4" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Q4" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="S4" s="0" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="T4" s="0" t="s">
         <x:v>36</x:v>
@@ -1518,10 +1482,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="AG4" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AH4" s="0" t="s">
         <x:v>76</x:v>
-      </x:c>
-      <x:c r="AH4" s="0" t="s">
-        <x:v>77</x:v>
       </x:c>
       <x:c r="AI4" s="0" t="s">
         <x:v>50</x:v>
@@ -1532,79 +1496,79 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="I5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="M5" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="N5" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
+      <x:c r="P5" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="M5" s="0" t="s">
+      <x:c r="R5" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="N5" s="0" t="s">
+      <x:c r="S5" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="T5" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="V5" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="P5" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="Q5" s="0" t="s">
+      <x:c r="W5" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="R5" s="0" t="s">
+      <x:c r="X5" s="0" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="S5" s="0" t="s">
+      <x:c r="Y5" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Z5" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="T5" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="V5" s="0" t="s">
+      <x:c r="AA5" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AB5" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AC5" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AF5" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="W5" s="0" t="s">
+      <x:c r="AG5" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="X5" s="0" t="s">
+      <x:c r="AH5" s="0" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="Y5" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Z5" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="AA5" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AB5" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AC5" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="AF5" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="AG5" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AH5" s="0" t="s">
-        <x:v>95</x:v>
       </x:c>
       <x:c r="AI5" s="0" t="s">
         <x:v>36</x:v>
@@ -1615,70 +1579,70 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="M6" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
+      <x:c r="N6" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="Q6" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="I6" s="0" t="s">
+      <x:c r="R6" s="0" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="K6" s="0" t="s">
+      <x:c r="S6" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="M6" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="N6" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="Q6" s="0" t="s">
+      <x:c r="T6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="V6" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="R6" s="0" t="s">
+      <x:c r="W6" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="X6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="Y6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="Z6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AB6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AC6" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="S6" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="T6" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="V6" s="0" t="s">
+      <x:c r="AF6" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
-      <x:c r="W6" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="X6" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="Y6" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="Z6" s="0" t="s">
+      <x:c r="AG6" s="0" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="AB6" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AC6" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="AF6" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="AG6" s="0" t="s">
-        <x:v>107</x:v>
       </x:c>
       <x:c r="AH6" s="0" t="s">
         <x:v>57</x:v>
@@ -1689,55 +1653,55 @@
     </x:row>
     <x:row r="7" spans="1:35">
       <x:c r="D7" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="I7" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
+      <x:c r="M7" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Q7" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="R7" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="S7" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="I7" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="K7" s="0" t="s">
+      <x:c r="V7" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="W7" s="0" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="M7" s="0" t="s">
+      <x:c r="X7" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="Q7" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="R7" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="S7" s="0" t="s">
+      <x:c r="Z7" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="V7" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="W7" s="0" t="s">
+      <x:c r="AC7" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AF7" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="AG7" s="0" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="X7" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="Z7" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AC7" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AF7" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="AG7" s="0" t="s">
-        <x:v>116</x:v>
       </x:c>
       <x:c r="AH7" s="0" t="s">
         <x:v>56</x:v>
@@ -1748,190 +1712,184 @@
     </x:row>
     <x:row r="8" spans="1:35">
       <x:c r="D8" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="G8" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="I8" s="0" t="s">
         <x:v>119</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
+      <x:c r="K8" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="M8" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
-      <x:c r="I8" s="0" t="s">
+      <x:c r="Q8" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="M8" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Q8" s="0" t="s">
+      <x:c r="R8" s="0" t="s">
         <x:v>122</x:v>
       </x:c>
-      <x:c r="R8" s="0" t="s">
+      <x:c r="S8" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
-      <x:c r="S8" s="0" t="s">
+      <x:c r="W8" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
-      <x:c r="W8" s="0" t="s">
+      <x:c r="X8" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Z8" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="AC8" s="0" t="s">
         <x:v>125</x:v>
       </x:c>
-      <x:c r="X8" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="Z8" s="0" t="s">
+      <x:c r="AF8" s="0" t="s">
         <x:v>126</x:v>
       </x:c>
-      <x:c r="AC8" s="0" t="s">
+      <x:c r="AG8" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="AF8" s="0" t="s">
+      <x:c r="AH8" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
-      <x:c r="AG8" s="0" t="s">
+    </x:row>
+    <x:row r="9" spans="1:35">
+      <x:c r="F9" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="AH8" s="0" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:35">
-      <x:c r="E9" s="0" t="s">
+      <x:c r="I9" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
         <x:v>131</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
+      <x:c r="M9" s="0" t="s">
         <x:v>132</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
+      <x:c r="Q9" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="M9" s="0" t="s">
+      <x:c r="R9" s="0" t="s">
         <x:v>134</x:v>
       </x:c>
-      <x:c r="Q9" s="0" t="s">
+      <x:c r="S9" s="0" t="s">
         <x:v>135</x:v>
       </x:c>
-      <x:c r="R9" s="0" t="s">
+      <x:c r="W9" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
-      <x:c r="S9" s="0" t="s">
+      <x:c r="X9" s="0" t="s">
         <x:v>137</x:v>
       </x:c>
-      <x:c r="W9" s="0" t="s">
+      <x:c r="Z9" s="0" t="s">
         <x:v>138</x:v>
       </x:c>
-      <x:c r="X9" s="0" t="s">
+      <x:c r="AC9" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="Z9" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AC9" s="0" t="s">
+      <x:c r="AF9" s="0" t="s">
         <x:v>140</x:v>
       </x:c>
-      <x:c r="AF9" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
       <x:c r="AG9" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="AH9" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:35">
       <x:c r="F10" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="K10" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="M10" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="Q10" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="R10" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="S10" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="X10" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="Z10" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="AC10" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="AF10" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="AG10" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="AH10" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:35">
       <x:c r="F11" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="M11" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="Q11" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="R11" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="S11" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="X11" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="Z11" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="AC11" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="AF11" s="0" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="AG11" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="AH11" s="0" t="s">
         <x:v>165</x:v>
@@ -1965,13 +1923,7 @@
       <x:c r="Z12" s="0" t="s">
         <x:v>174</x:v>
       </x:c>
-      <x:c r="AC12" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
       <x:c r="AF12" s="0" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="AG12" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
     </x:row>
@@ -2000,243 +1952,199 @@
       <x:c r="Z13" s="0" t="s">
         <x:v>183</x:v>
       </x:c>
-      <x:c r="AC13" s="0" t="s">
+      <x:c r="AF13" s="0" t="s">
         <x:v>184</x:v>
-      </x:c>
-      <x:c r="AF13" s="0" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="AG13" s="0" t="s">
-        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:35">
       <x:c r="G14" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="K14" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="M14" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
-      <x:c r="K14" s="0" t="s">
+      <x:c r="X14" s="0" t="s">
         <x:v>188</x:v>
       </x:c>
-      <x:c r="M14" s="0" t="s">
+      <x:c r="Z14" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
-      <x:c r="X14" s="0" t="s">
+      <x:c r="AF14" s="0" t="s">
         <x:v>190</x:v>
-      </x:c>
-      <x:c r="Z14" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="AC14" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="AF14" s="0" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="AG14" s="0" t="s">
-        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:35">
       <x:c r="G15" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="X15" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="Z15" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="AF15" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="K15" s="0" t="s">
+    </x:row>
+    <x:row r="16" spans="1:35">
+      <x:c r="G16" s="0" t="s">
         <x:v>196</x:v>
       </x:c>
-      <x:c r="M15" s="0" t="s">
+      <x:c r="K16" s="0" t="s">
         <x:v>197</x:v>
       </x:c>
-      <x:c r="X15" s="0" t="s">
+      <x:c r="M16" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
-      <x:c r="Z15" s="0" t="s">
+      <x:c r="Z16" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="AF16" s="0" t="s">
         <x:v>199</x:v>
       </x:c>
-      <x:c r="AC15" s="0" t="s">
+    </x:row>
+    <x:row r="17" spans="1:35">
+      <x:c r="G17" s="0" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="AF15" s="0" t="s">
+      <x:c r="K17" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
-      <x:c r="AG15" s="0" t="s">
+      <x:c r="Z17" s="0" t="s">
         <x:v>202</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:35">
-      <x:c r="K16" s="0" t="s">
+      <x:c r="AF17" s="0" t="s">
         <x:v>203</x:v>
       </x:c>
-      <x:c r="M16" s="0" t="s">
+    </x:row>
+    <x:row r="18" spans="1:35">
+      <x:c r="G18" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
-      <x:c r="Z16" s="0" t="s">
+      <x:c r="Z18" s="0" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="AC16" s="0" t="s">
+      <x:c r="AF18" s="0" t="s">
         <x:v>206</x:v>
       </x:c>
-      <x:c r="AF16" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="AG16" s="0" t="s">
+    </x:row>
+    <x:row r="19" spans="1:35">
+      <x:c r="G19" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:35">
-      <x:c r="K17" s="0" t="s">
+      <x:c r="AF19" s="0" t="s">
         <x:v>208</x:v>
       </x:c>
-      <x:c r="Z17" s="0" t="s">
+    </x:row>
+    <x:row r="20" spans="1:35">
+      <x:c r="G20" s="0" t="s">
         <x:v>209</x:v>
       </x:c>
-      <x:c r="AC17" s="0" t="s">
+      <x:c r="AF20" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="AF17" s="0" t="s">
+    </x:row>
+    <x:row r="21" spans="1:35">
+      <x:c r="G21" s="0" t="s">
         <x:v>211</x:v>
       </x:c>
-      <x:c r="AG17" s="0" t="s">
+      <x:c r="AF21" s="0" t="s">
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:35">
-      <x:c r="Z18" s="0" t="s">
+    <x:row r="22" spans="1:35">
+      <x:c r="G22" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
-      <x:c r="AC18" s="0" t="s">
+      <x:c r="AF22" s="0" t="s">
         <x:v>214</x:v>
       </x:c>
-      <x:c r="AF18" s="0" t="s">
+    </x:row>
+    <x:row r="23" spans="1:35">
+      <x:c r="G23" s="0" t="s">
         <x:v>215</x:v>
       </x:c>
-      <x:c r="AG18" s="0" t="s">
+      <x:c r="AF23" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:35">
-      <x:c r="AF19" s="0" t="s">
+    <x:row r="24" spans="1:35">
+      <x:c r="G24" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
-      <x:c r="AG19" s="0" t="s">
+      <x:c r="AF24" s="0" t="s">
         <x:v>218</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:35">
-      <x:c r="AF20" s="0" t="s">
+    <x:row r="25" spans="1:35">
+      <x:c r="G25" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
-      <x:c r="AG20" s="0" t="s">
+      <x:c r="AF25" s="0" t="s">
         <x:v>220</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:35">
-      <x:c r="AF21" s="0" t="s">
+    <x:row r="26" spans="1:35">
+      <x:c r="G26" s="0" t="s">
         <x:v>221</x:v>
       </x:c>
-      <x:c r="AG21" s="0" t="s">
-        <x:v>222</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:35">
-      <x:c r="AF22" s="0" t="s">
-        <x:v>223</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:35">
-      <x:c r="AF23" s="0" t="s">
-        <x:v>224</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:35">
-      <x:c r="AF24" s="0" t="s">
-        <x:v>225</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:35">
-      <x:c r="AF25" s="0" t="s">
-        <x:v>226</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:35">
       <x:c r="AF26" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:35">
       <x:c r="AF27" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:35">
       <x:c r="AF28" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:35">
       <x:c r="AF29" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:35">
       <x:c r="AF30" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:35">
       <x:c r="AF31" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:35">
       <x:c r="AF32" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:35">
       <x:c r="AF33" s="0" t="s">
-        <x:v>233</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:35">
-      <x:c r="AF34" s="0" t="s">
-        <x:v>234</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:35">
-      <x:c r="AF35" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:35">
-      <x:c r="AF36" s="0" t="s">
-        <x:v>235</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:35">
-      <x:c r="AF37" s="0" t="s">
-        <x:v>236</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:35">
-      <x:c r="AF38" s="0" t="s">
-        <x:v>237</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:35">
-      <x:c r="AF39" s="0" t="s">
-        <x:v>238</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:35">
-      <x:c r="AF40" s="0" t="s">
-        <x:v>239</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:35">
-      <x:c r="AF41" s="0" t="s">
-        <x:v>240</x:v>
-      </x:c>
-    </x:row>
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:35"/>
+    <x:row r="35" spans="1:35"/>
+    <x:row r="36" spans="1:35"/>
+    <x:row r="37" spans="1:35"/>
+    <x:row r="38" spans="1:35"/>
+    <x:row r="39" spans="1:35"/>
+    <x:row r="40" spans="1:35"/>
+    <x:row r="41" spans="1:35"/>
     <x:row r="42" spans="1:35"/>
     <x:row r="43" spans="1:35"/>
     <x:row r="44" spans="1:35"/>
